--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_3_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_3_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.8768247254212946, 4.46270418598215]</t>
+          <t>[3.86800773917371, 4.4715211722297346]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.015239299981657961, 0.3538514988746351]</t>
+          <t>[0.015285852432669778, 0.35380494642362326]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.03333385148497459</v>
+        <v>0.03328773934695306</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03333385148497459</v>
+        <v>0.03328773934695306</v>
       </c>
       <c r="W2" t="n">
         <v>6.681481481481599</v>
